--- a/src/dataset/persian-dataset.xlsx
+++ b/src/dataset/persian-dataset.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -54,6 +54,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به دسته ای از تسک هایی که روی یک پارتیشن انجام می شود استیج می گویند و امکان اجرای موازی را دارند</t>
     </r>
@@ -62,6 +63,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -72,6 +74,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">حل مسائل توی مپ ریدوس یعنی پیدا کردن زوج ها و ولیو ها در مپ وقتی یک تاپل در آر بیاید و کلید را پی کی می گیریم و آ را در خروجی میاوریم</t>
     </r>
@@ -80,14 +83,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ریدوس می شود همان پی کی ای که کلید کردیم و ولیو چون می تواند بیش از یکی باشد می شود آ آ آ و خروجی می شود یک آ یعنی حذف حرف تکراری</t>
     </r>
@@ -98,6 +103,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">متد این مپ ریدوسر در اصل ترکیبی از </t>
     </r>
@@ -106,6 +112,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -114,6 +121,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع مپ کامباین ریدوس است که تابع کامباین به این دلیل اضافه گردید که مشکل استیت لس بودن متد مپ ریدوس را در برخی از مسائل حل کند</t>
     </r>
@@ -122,6 +130,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -130,6 +139,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">نحوه ی کار آن به این صورت است که امکان تعریف </t>
     </r>
@@ -138,6 +148,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4 </t>
     </r>
@@ -146,6 +157,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یا </t>
     </r>
@@ -154,6 +166,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8 </t>
     </r>
@@ -162,6 +175,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">بایت فضای ذخیره ساز داریم و می توان در آن تعداد خط های پردازش شده و ورودی های دریافتی را ذخیره کنیم</t>
     </r>
@@ -170,14 +184,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این مقدار فضایی ذخیره ساز بسیار کم بوده و با ویژگی اسکیلبیلیتی متد مپ ریدوس منافاتی نخواهد داشت</t>
     </r>
@@ -186,14 +202,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">روند کار به این شکل اس که با آمدن هر خط مقدار این متغییرها را آپدیت می کند و سپس ادامه می دهد</t>
     </r>
@@ -202,14 +220,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این تکنیک در جاهای خطرناک مثل بزرگ شدن ساختمان داده استفاده می شود</t>
     </r>
@@ -218,14 +238,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این تکنیک به نوعی مینی ریدوسر نام گزاری می شود و ورودی تابع کامباین با تابع ریدوس یکسان است پس منافاتی ایجاد نمی کند</t>
     </r>
@@ -234,6 +256,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -244,6 +267,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین در سمت مپ یک استیت را نگه می دارد طبق ورودی آن یک متغییر تی و تعدادی از تکرارهای آن را ذخیره می کند</t>
     </r>
@@ -252,14 +276,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اما امکان شمارش همه ی تی ها را نداریم در روش کامباید به دلیل در نظر داشتن ویژگی اسکیلبیلیتی و تا جایی که حافظه اجازه دهد تی را ذخیره می کند به این علت می گویند کامباین روشی اختیاریست به این شکل که نحوه ی اجرای آن تنها با توجه به این تصمیم گیری سیستم می باشد و در صورت پر شدن حافظه سیستم تصمیم به حذف رکوردهای قبلی یا ذخیره نکردن رکورد جدید را می‌گیرد</t>
     </r>
@@ -270,6 +296,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین به نوعی وظیفه ی ریدوس را به سمت مپ اجرا می کند و به تابع کامباین در اصطلاح مینی ریدوسر هم می گویند</t>
     </r>
@@ -278,14 +305,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">و در توابعی که خاصیت اشتراک پذیری یا جا به جایی داشته باشند در زبان جاوا می توان تابع ریدوس را در تابع کامباین جای گذاری کرد</t>
     </r>
@@ -294,14 +323,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">از طرفی تابع کامباین ورودی مشابه تابع ریدوس و در خروجی مشابه تابع مپ دارد</t>
     </r>
@@ -310,14 +341,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خروجی ما چه از مپ بیاید چه از خروجی کامباین باید یکسان و به یک شکل باشد</t>
     </r>
@@ -326,14 +359,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین در سمت مپ می تواند به نوعی در حکم حافظه عمل کند و تا حدی که امکان دارد یک استیت و تعداد تکرار های آن را ذخیره کند</t>
     </r>
@@ -342,6 +377,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -352,6 +388,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">با </t>
     </r>
@@ -360,6 +397,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -368,6 +406,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">الیه ام آر انجام می دهد</t>
     </r>
@@ -376,6 +415,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:‌</t>
     </r>
@@ -384,6 +424,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">لایه اول مثلث بازها لایه دوم مثلث بسته ها در لایه دوم بررسی می شود که مثلث هایی که پیدا کردیم بین یالی هست یا خیر </t>
     </r>
@@ -392,6 +433,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -400,6 +442,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تبدیل به مثلث بسته می شود</t>
     </r>
@@ -408,6 +451,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -416,6 +460,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">هر یال را به صورت زوج مرتب می گیریم وقتی یال بی آ را دریافت می کنیم به سمت اینکه مثلث بازها را پیدا کنیم می رویم مثلث های بازی که آ راس اس پس آ‌ کلید و راسی که به آن وصل است ولیو در نظر می گیریم</t>
     </r>
@@ -424,14 +469,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">همین اتفاق برای بی هم می تواند بیفتد یعنی بی کلید شود و آ‌ ولیو شود در سمت ریدوس چه مقادیری برای کلید آ امدن</t>
     </r>
@@ -440,6 +487,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -448,6 +496,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">لیستی از راس ها امکان دارد به آ وصل باشد</t>
     </r>
@@ -456,6 +505,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -464,6 +514,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در این صورت اگر ان تا راس وصل شده به آ داشته باشیم با راس میانی آ تا مثلث باز خواهیم داشت مثلث تکراری هم اینجا نیست در مپ</t>
     </r>
@@ -472,6 +523,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -480,6 +532,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مثلث بازها را داریم مثل بی آ بی پریم</t>
     </r>
@@ -490,6 +543,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دو مدل عملگر در اسپارک داریم </t>
     </r>
@@ -498,6 +552,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:‌</t>
     </r>
@@ -506,6 +561,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اکشن و ترنسفورمیشن  ترنسفورمیشن ها لیزی ها هستند و بلافاصله اجرا نمی شوند و همه در صف منتظر ورود اکشن می مانند ، چون نمی تواند که همه ی داده ها را ضرب در </t>
     </r>
@@ -514,6 +570,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -522,6 +579,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">کند یا </t>
     </r>
@@ -530,6 +588,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+1 </t>
     </r>
@@ -538,6 +597,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">کند</t>
     </r>
@@ -546,14 +606,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">نگه می دارد تا یک جا همه ی عملیات ها را انجام دهد</t>
     </r>
@@ -562,14 +624,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تا جایی که بتواند انجام ندهد انجام نمی دهد</t>
     </r>
@@ -578,6 +642,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -586,6 +651,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اکشن ها دستور هایی هستند که نمی توانیم انجام ندهیم مثل دستورات تیک ها یا نمایش داده ها ، با ورود دستور </t>
     </r>
@@ -594,6 +660,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">action </t>
     </r>
@@ -602,6 +669,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ها دستورات ترنسفورمیشن های که در صف اجرابودند برای نمایش خروجی اکشن ها مجبور به  اجرا می شوند </t>
     </r>
@@ -610,6 +678,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -623,6 +692,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">استیج در اسپارک یک واحد فیزیکی برای اجرای دستورات است</t>
     </r>
@@ -631,6 +701,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -639,6 +710,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">زمانی که سیستم به شبکه متصل شوند اسپارک از یک به دو افزایش می یابد</t>
     </r>
@@ -647,6 +719,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -657,6 +730,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به دلیل اینکه در مپ تابع ریدوس عمل نمیکند از تابع کامباین که به آن مینی ریدوسر نیز میگویند استفاده می کنیم</t>
     </r>
@@ -665,6 +739,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -673,6 +748,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین در مپ یک استیت را نگه می دارد و طبق ورودی آن یک متغیر تی و تعدادی از تکرار های آن را ذخیره میکند</t>
     </r>
@@ -681,6 +757,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -689,6 +766,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به دلیل در نظر داشتن ویژگی اسکیلبیلیتی تا جایی که حافظه اجازه بدهد تابع کامباین تی هارا ذخیره می کند ولی امکان شماره همه </t>
     </r>
@@ -697,6 +775,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">t</t>
     </r>
@@ -705,6 +784,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">هارا در این روش نداریم</t>
     </r>
@@ -713,14 +793,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به همین دلیل است که کامباین یک روش اختیاری می باشد و اجرای آن با توجه به تصمیم سیستم می باشد</t>
     </r>
@@ -729,6 +811,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -742,6 +825,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خروجی ما از مپ و کامباین به یک صورت می باشد</t>
     </r>
@@ -750,6 +834,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -758,6 +843,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین یک نوع مینی ریدوس می باشد و می تواند خصوصیت جا به جایی یا خاصیت اشتراک پذیری را برقرار کند و تابع ریدوس را در کامباین جایگذاری کند</t>
     </r>
@@ -766,6 +852,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -774,6 +861,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در کامباین ورودی مشابه با تابع ریدوس و خروجی مشابه تابع مپ می باشد  تابع کامباین به نوعی وظیفه ریدوس را در تابع مپ اجرا می کند به همین دلیل به آن مینی ریدوسر می گویند</t>
     </r>
@@ -782,6 +870,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -795,6 +884,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اکشن </t>
     </r>
@@ -803,6 +893,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -811,6 +902,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ترنسفورمیشن  اکشن برای نمایش و خروجی می باشد  ترنسفورمیشن لیزی هستند و بلافاصله اجرا نمی شوند و پس از اجرای اکشن آن ها به صورت اجباری اجرا می‌شوند</t>
     </r>
@@ -824,6 +916,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> گروهی از تسک ها که بر مبنای یک پارتیشن اجرا می شوند و می توانند موازی اجرا شوند  جایی که نیاز به نتورک نیست دستورات و عملگرها همه داخل یک استیج قرار می گیرند و اگر داخل شبکه باشد وارد استیج دوم می شود</t>
     </r>
@@ -832,6 +925,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -842,6 +936,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 4 </t>
     </r>
@@ -850,6 +945,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یا </t>
     </r>
@@ -858,6 +954,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8 </t>
     </r>
@@ -866,6 +963,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">بایت فضای دخیره ساز داریم و در آن تعداد خط های پردازش شده و ورودی های دریافتی را ذخیره میکنیم این مقدار فضای ذخیره ساز کم هست   هر تاپل تی که میاید این متغیر ها را آپدیت میکند </t>
     </r>
@@ -874,6 +972,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -882,6 +981,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در مپ ریدوسر تعدادی ریدوسر داریم که ردیوس را اجرا میکنند</t>
     </r>
@@ -890,14 +990,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یک سری مپر داریم که مپ را اجرا میکنند و یک سری کامباینر هست که کامباین را اجرا میکنند و کامباین به نحوی وظیفه ریدوس را در سمت مپ انجام میدهد یعنی یک استیت را نگه میدارد و طبق تی تکراری هارا ذخیره میکند</t>
     </r>
@@ -906,6 +1008,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -919,6 +1022,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین کار تابع ریدوس را در سمت مپ انجام میدهد یعنی در سمت مپ یک استیت را نگه داشته و طبق ورودی آن یک  متغیر تی و تعدادی از تکراری ها را تا جایی که حافظه دارد ذخیره میکند</t>
     </r>
@@ -927,14 +1031,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین ورودی مشابه ردیوس ولی خروجی شبیه به تابع مپ دارد</t>
     </r>
@@ -943,6 +1049,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -951,6 +1058,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اگر خاصیت جابجایی برقرار باشد مقدار کامباین و ریدوس یکسان می‌شوند</t>
     </r>
@@ -967,6 +1075,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در اسپارک استیج یک واحد فیزیکی اجراست و تب استیج یک خلاصه از وضعیت تمام استیج های تمام جاب ها می دهد</t>
     </r>
@@ -975,14 +1084,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اسپارک یک برنامه را به جاب ها ، استیج ها و تسک های مختلف تقسیم میکند زمانی که حجم زیادی از کار در حال اجرا شدن است ، هر جاب میتواند تعداد زیادی استیج داشته باشد و در هر استیج تعداد زیادی تسک خواهد بود</t>
     </r>
@@ -991,16 +1102,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خوشه بندی اسناد را با روش کی مینز میتوان به طور بهینه با نوشتن توابع مناسب مپ و ریدوس پیاده سازی کرد</t>
     </r>
@@ -1009,6 +1122,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1017,6 +1131,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اجرای موازی این الگوریتم برای خوشه بندی اسناد با روش مپ ریدوس امکان پذیر است</t>
     </r>
@@ -1025,6 +1140,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1033,6 +1149,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">بازده الگوریتم کی مینز با مپ ریدوس از نظر زمان اجرا از کی مینز به صورت سکونشیال بهتر است</t>
     </r>
@@ -1041,16 +1158,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">کامباین مینی ریدوسر هایی هستند که در حافظه بعد از مرحله ی مپ اجرا میشوند</t>
     </r>
@@ -1059,6 +1178,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1067,6 +1187,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اگر دو شرط اشتراک پذیری و جا به جایی برای مساله برقرار باشد میتوان تابع </t>
     </r>
@@ -1075,6 +1196,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">combine </t>
     </r>
@@ -1083,6 +1205,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">را برای تابع ریدوس کپی کرد</t>
     </r>
@@ -1091,6 +1214,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1099,6 +1223,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">کامباین به عنوان یک بهینه ساز برای کاهش ترافیک شبکه استفاده میشود</t>
     </r>
@@ -1107,6 +1232,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1115,6 +1241,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">استفاده از کامباینر اختیاری است</t>
     </r>
@@ -1123,6 +1250,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1131,6 +1259,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین ورودی مشابه تابع ردیوس و خروجی مشابه تابع مپ دارد</t>
     </r>
@@ -1139,16 +1268,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">با دو لایه مپ ردیوس میتوانیم مثلث های یک گراف را بدون تکرار پیدا کنیم</t>
     </r>
@@ -1157,6 +1288,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1165,6 +1297,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در لایه اول مثلث های باز را پیدا میکنیم و در لایه دوم بررسی میکنیم که یال سومی هست که این مثلث ها بسته شوند</t>
     </r>
@@ -1173,6 +1306,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1181,6 +1315,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">هر یال را به صورت زوج مرتب دریافت میکنیم</t>
     </r>
@@ -1189,6 +1324,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1197,6 +1333,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ورودی مپ دوم مثلث باز ها هستند</t>
     </r>
@@ -1207,6 +1344,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">عملگر ها در اسپارک دو نوع اند  </t>
     </r>
@@ -1215,6 +1353,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:  </t>
     </r>
@@ -1223,6 +1362,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">نررو ترنسفورمیشن ها که شامل </t>
     </r>
@@ -1231,6 +1371,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1239,6 +1380,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مپ</t>
     </r>
@@ -1247,6 +1389,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1255,6 +1398,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">فلت مپ</t>
     </r>
@@ -1263,6 +1407,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1271,6 +1416,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">فیلتر</t>
     </r>
@@ -1279,6 +1425,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1287,6 +1434,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یونیون</t>
     </r>
@@ -1295,6 +1443,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1303,6 +1452,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">سمپل</t>
     </r>
@@ -1311,6 +1461,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1319,6 +1470,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">پارتیشن  در مقابل نررو واید  را هم داریم که شامل </t>
     </r>
@@ -1327,6 +1479,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1335,6 +1488,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اینترسکشن </t>
     </r>
@@ -1343,6 +1497,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1351,6 +1506,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دیستینکت </t>
     </r>
@@ -1359,6 +1515,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1367,6 +1524,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">جوین </t>
     </r>
@@ -1380,6 +1538,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در اسپارک میتوانیم به کمک استیج، دستورات یا اس کیو ال را اجرا کنیم</t>
     </r>
@@ -1388,14 +1547,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">همچنین به کمک یک دگ می توانیم پردازش و تغییرات داده ها را بر روی آر دی دی کنترل کنیم  هر استیج ممکن است شامل یک یا چند تسک باشد ولی به شرطی که بین تسک ها نیاز به نتورک نباشد</t>
     </r>
@@ -1404,14 +1565,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">هر کجا که برای ارتباط نیاز به نتورک باشد یک استیج دیگر در نظر گرفته می‌شود</t>
     </r>
@@ -1420,16 +1583,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این پترن در واقع حالت استیت لس بودن مپ رو نغض میکنه و ابتدا اطلاعات را تجمیع می‌کند و سپس به ریدوسر منتقل می‌کند</t>
     </r>
@@ -1438,14 +1603,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">زیرا ممکن است در بعضی از مسائل حجم داده ای که می توانیم به این صورت در رم ذخیره کنیم خیلی کم باشد و قابل چشم پوشی باشد</t>
     </r>
@@ -1454,14 +1621,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">که یک تابع به نام کامباینر در کنار مپ</t>
     </r>
@@ -1470,6 +1639,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1478,6 +1648,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ریدوسر اضافه می شود این تابع ممکن است با تابع ریدوسر از لحاظ منطق یکی باشد تنها در صورتی که تابع ریدوسر ما هم اصل جابجایی و هم اصل شرکت پذیری را داشته باشد</t>
     </r>
@@ -1486,14 +1657,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">از لحاظ ورودی فرقی برای ریدوسر ایجاد نمی شود زیرا خروجی کامباینر با خروجی مپ یکی است و همینطور ورودی کامباینر با ورودی ریدوسر یکی است </t>
     </r>
@@ -1504,6 +1677,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">می توانیم به کمک کامباینر این مشکل را حل کنیم، به این صورت که بخشی از محاسبات را در کامباینر انجام میدهیم و به دلیل اسکیلبیلیتی ای که دارد و ذخیره سازی محاسبات،تا جایی که می تواند در سیستم محاسبات را ذخیره میکند و سپس به ریدوسر منتقل می‌کند</t>
     </r>
@@ -1512,16 +1686,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین از لحاظ ورودی شبیه به ریدوسر است و از لحاظ خروجی شبیه به مپ است</t>
     </r>
@@ -1530,16 +1706,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دو نوع عملگر داریم  عملگر ترنسفورمیشن که از روی دیتاست یک دیتاست دیگر می‌سازد</t>
     </r>
@@ -1548,6 +1726,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1556,6 +1735,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">عملگر اکشن که محاسبات را روی دیتاست مورد نظر اعمال می‌کند و نتیجه را بر میگرداند</t>
     </r>
@@ -1564,6 +1744,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1572,6 +1753,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">عملگر ترنسفورمیشن در واقع لیزی است و عملیات را بلافاصله انجام نمیدهد تا زمانی که یک اکشن در واقع تریگر شود</t>
     </r>
@@ -1580,14 +1762,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">پس از تریگر شدن اکشن عملیات انجام می‌شود و نتیجه بر گردانده می‌شود و در مموری دیگر دیتاست اولیه را نداریم ولی می توانیم از طریق کش دسترسی پیدا کنیم </t>
     </r>
@@ -1601,6 +1785,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">استیج</t>
     </r>
@@ -1609,6 +1794,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1617,6 +1803,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یک گروه از تسکها کهبر مبنای یک پارتیشن اجرا می شوند و می توانند موازی اجرا شوند</t>
     </r>
@@ -1625,6 +1812,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.   </t>
     </r>
@@ -1633,6 +1821,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تا جایی که نیاز به نتورک نیست دستورات و عملگرها همه داخل یک استیج قرار می گیرند ولی اگر داخل شبکه باشد وارد استیج دوم می شود</t>
     </r>
@@ -1641,16 +1830,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ان به تعداد آبجکت ها اشار داره و کا به تعداد خوشه هایی که ساخته شده</t>
     </r>
@@ -1659,6 +1850,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1667,6 +1859,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع مپ میاد هر سمپل رو به نزدیکترین مرکزش اختصاص میده و تابع ریدوس کارش آپدیت مراکز جدیدخوشه هستش</t>
     </r>
@@ -1675,6 +1868,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -1683,6 +1877,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این وسط یه تابع کامباین هم داریم که خروجی اش می شود ورودی ریدوسر</t>
     </r>
@@ -1691,6 +1886,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1699,6 +1895,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">با داشتن این آرایه از اطلاعات مراکز خوشه ها، یه مپر میتونه نزدیکترین مرکز برای هر نمونه از دیتامون رو محاسبه کنه</t>
     </r>
@@ -1707,14 +1904,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مقادیر میانی هم شامل دو بخش هستند</t>
     </r>
@@ -1723,6 +1922,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1731,6 +1931,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ایندکس نزدیک ترین مرکز اطلاعات هرنمونه از دیتا </t>
     </r>
@@ -1741,6 +1942,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">محیط پردازشی برای مپ ریدوس یک آبجکت کلاس مپ دراختیار ما قرار میدهد</t>
     </r>
@@ -1749,14 +1951,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">از این کلاس  مپر آبجکت ساخته میشود و این در یک نود پردازشی لود میشود و شروع میکند به کار کردن</t>
     </r>
@@ -1765,6 +1969,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1773,6 +1978,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">محیط پردازشی  برای مپ ریدوس کلاس مپر در اختیار ما قرار میدهد که از این کلاس فقط یک مپر آبجکت ساخته می شودو این آبجکت در آن نود پردازشی لود میشود و شروع میکند به کار کردن  برای ریدوس هم همین موارد صادق است </t>
     </r>
@@ -1781,6 +1987,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  3 </t>
     </r>
@@ -1789,6 +1996,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع در مپر آبجکت وجود دارد </t>
     </r>
@@ -1797,6 +2005,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -1805,6 +2014,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">کلین آپ ست آپ مپ</t>
     </r>
@@ -1813,16 +2023,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یکسری ماشین ریدوسر داریم که تابع ریدوس را جرا می کنند و یکسری ماشین مپر داریم که تابع مپ را اجرا میکنند و یکسری تابع کامباینر که تابع کامباین را اجرا میکنند </t>
     </r>
@@ -1831,14 +2043,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین به نوعی وظیفه ی ریدوس را سمت مپ اجرا میکند ، به تابع کامباین به نوعی مینی ریدوسر هم میگویند </t>
     </r>
@@ -1847,14 +2061,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین در سمت مپ یک استیت را نگه می دارد طبق ورودی آن یک متغیر تی و تعدادی از تکرار های آن را ذخیره می کند </t>
     </r>
@@ -1863,6 +2079,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -1871,6 +2088,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">امکان شمارش همه ی تی ها را نداریم در روش کامباین به دلیل در نظر داشتن ویژگی اسکیلبیلیتی و تا جایی که حافظه اجازه دهد تی را ذخیره می کند </t>
     </r>
@@ -1879,14 +2097,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به این علت می گویند کامباین اختیاریست به این شکل که نحوه ی اجرای آن تنها با توجه به تصمیم گیری سیستم می باشد</t>
     </r>
@@ -1895,16 +2115,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین به نوعی وظیفه ی ریدوس را سمت مپ اجرا میکند ، به تابع کامباین به نوعی مینی ریدوسر هم می گویند  تابع کامباین در سمت مپ یک استیت رو نگه می دارد طبق ورودی آن یک متغیر تی و تعدادی از تکرار های آن را ذخیره می کند </t>
     </r>
@@ -1913,14 +2135,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین ورودی مشابه تابع ریدوس و خروجی مشابه تابع مپ دارد  خروجی ما چه از مپ بیاد چه از خروجی کامباین باید یکسان و به یک شکل باشد  تابع کامباین چون مینی ریدوسر هست می توان در مواردی که خاصیت جابه جایی یا خاصیت اشتراک پذیری برقرار است در زبان جاوا ، تابع ریدوس را کپی و در کامباین جایگذاری کرد </t>
     </r>
@@ -1931,6 +2155,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> دو مدل اپریشن در اسپارک هست</t>
     </r>
@@ -1939,6 +2164,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1947,6 +2173,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اکشن و ترنسفورمیشن  ترنسفورمیشنها لیزی هستند و بلافاصله اجرا نمی شوند</t>
     </r>
@@ -1955,14 +2182,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">پس همه آنها کنار هم قرار می گیرند و منتظر می شوند یک اکشن بیاید و چون اکشنها در نمایش و خروجی دادن هستند، ترنسفورمیشن ها اجبارا اجرامی شوند تا خروجی اپریشن ها را اجرا کنند</t>
     </r>
@@ -1971,6 +2200,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -1984,6 +2214,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ما با چندین استیج دستور را اجرا می کنیم تا جایی که نیاز به </t>
     </r>
@@ -1992,6 +2223,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">network </t>
     </r>
@@ -2000,6 +2232,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">نداریم عملگر ها و دستورات و برنامه ها در یک استیج  قرار می گیرند و وقتی به نتورک دیگری برود به استیج شماره </t>
     </r>
@@ -2008,6 +2241,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -2016,6 +2250,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">می رود </t>
     </r>
@@ -2024,6 +2259,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2034,6 +2270,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع مپ هر سمپل رو به نزدیکترین مرکزش اختصاص می دهد و تابع ریدوس کار آپدیت مراکز جدید خوشه را انجام می دهد البته می توان از تابع کامباین که خروجی آن می شود ورودی ریدوسر  در الگوریتم پی کی مینز  هر تسک از مپ   یک آرایه که اطلاعات مربوط به مراکز خوشه است رو در خودش نگهداری می کند</t>
     </r>
@@ -2042,6 +2279,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2052,6 +2290,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یعنی استیت  دار بودن اگه از مپر  و آبجکت  ساخته می شود و برای ریدوس به همین شکل است استیت ستاپ مپ دارد</t>
     </r>
@@ -2060,6 +2299,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2073,6 +2313,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به کامباین وظیفه مشابه با ریدوسر دارد ولی در سمت مپ اجرا می شود خروجی مپ و کامباین  باید یکسان باشند برای ریدوسر و همچنین ورودی کامباین و ریدوسر باید یکسان باشند چون از مپ ورودی می گیرد</t>
     </r>
@@ -2081,6 +2322,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2100,6 +2342,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یک موضوعی که در پلن فیزیکال مطرح می‌شود بحث استیج است که با چندین استیج دستور را ارجا می‌کنیم</t>
     </r>
@@ -2108,14 +2351,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ما می‌توانیم تعداد زیادی دستور نررو داشته باشیم</t>
     </r>
@@ -2124,14 +2369,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این نررو ها نیاز به شبکه ندارند و می توانیم همه را کنار هم قرار بدهیم و یا حتی می توانیم پشت سر هم اجرا کنیم</t>
     </r>
@@ -2140,14 +2387,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یعنی وقتی می‌خواهیم یک را رکورد را فیلتر کنیم و بعد در </t>
     </r>
@@ -2156,6 +2405,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2  </t>
     </r>
@@ -2164,6 +2414,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ضرب کنیم و الی آخر کارهایی را انجام می‌ دهمی که با جاهای دیگر سر و کار ندارند، اینها پشت سر هم همدیگر می توانند در رم انجام شود</t>
     </r>
@@ -2172,14 +2423,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">بر عکس ام آر ه نه تنها از روی شکبه ارسال میکند و روی هارد هم می نویسد </t>
     </r>
@@ -2188,14 +2441,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تگر نیاز داشتیم به یک دستور دیگر مجبور بودیم از روی هارد برگردانیم</t>
     </r>
@@ -2204,14 +2459,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اسپارک با تحلیل این دستورات و تشحیص که کدامها می توانند پشت سر هم در رم اجرا شوند می آید استیج ها را می سازد</t>
     </r>
@@ -2220,14 +2477,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">استیج  بندی و یا دسته بندی تقریبا جایی است که نیاز به شبکه داریم</t>
     </r>
@@ -2236,14 +2495,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">پس جایی که نیاز به شبکه نداریم عملگرها و دستورات و برنامه ها همه در یک استیج قرار می گیرند، زمانی که می رود سراغ شبکه یعنی می‌رود سراغ استیج دو</t>
     </r>
@@ -2252,6 +2513,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -2262,6 +2524,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">الگوریتم کی مینز که یک روش خوشه‌بندی بسیار محبوب است</t>
     </r>
@@ -2270,14 +2533,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این الگوریتم به کاربر کمک می‌کند تا با داده‌های فاقد برچسب کار کند </t>
     </r>
@@ -2286,6 +2551,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -2294,6 +2560,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مجموعه داده‌ای که فاقد برچسب کلاس است</t>
     </r>
@@ -2302,6 +2569,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">). </t>
     </r>
@@ -2310,6 +2578,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خوشه بندی کی مینز در دسته الگوریتم‌های خوشه‌بندی مبتنی بر </t>
     </r>
@@ -2318,6 +2587,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">«</t>
     </r>
@@ -2326,6 +2596,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مرکزوار</t>
     </r>
@@ -2334,6 +2605,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">»  </t>
     </r>
@@ -2342,6 +2614,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">قرار می‌گیرد</t>
     </r>
@@ -2350,14 +2623,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مرکزوار، یک نقطه داده </t>
     </r>
@@ -2366,6 +2641,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -2374,6 +2650,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تخیلی یا واقعی</t>
     </r>
@@ -2382,6 +2659,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -2390,6 +2668,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در مرکز خوشه است</t>
     </r>
@@ -2398,14 +2677,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در خوشه‌بندی مبتنی بر مرکزوار، خوشه‌ها به وسیله یک بردار یا مرکزوار مرکزی ارائه می‌شوند</t>
     </r>
@@ -2414,14 +2695,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این مرکزوار الزاما عضو مجموعه داده نیست</t>
     </r>
@@ -2430,14 +2713,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خوشه‌بندی مبتنی بر مرکزوار، یک </t>
     </r>
@@ -2446,6 +2731,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">«</t>
     </r>
@@ -2454,6 +2740,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">الگوریتم تکرار شونده</t>
     </r>
@@ -2462,6 +2749,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">» </t>
     </r>
@@ -2470,6 +2758,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">است که مشابهت در آن بر اساس نزدیک بودن نقطه داده به به مرکزوار خوشه تعیین می‌شود</t>
     </r>
@@ -2478,6 +2767,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -2488,6 +2778,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">برای اینکه کل داده های ما پردازش شود مجبوریم داده هایمان را یک خط یک خط بخوانیم</t>
     </r>
@@ -2496,14 +2787,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به طوری که خطها از خطهای قبلی خبر نداشته باشند</t>
     </r>
@@ -2512,14 +2805,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">طوری که شمارش ساده هم نتوانیم انجام دهیم</t>
     </r>
@@ -2528,14 +2823,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در مپ  نمی توانیم امکا مکانیزم ام آر به ما نشان می دهد که شمارش را می توانیم داشت باشیم</t>
     </r>
@@ -2544,14 +2841,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خیلی وقتها کار سخت میشود چون هدف اسکیلبیلیتی است و می پذیریم چون این موضوغ مهم است</t>
     </r>
@@ -2560,14 +2859,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">چون روی حجم زیادی از داده ها کار می‌کنیم</t>
     </r>
@@ -2576,6 +2877,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2584,6 +2886,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اگر دیتایی را روی رم بیاوریم و مپ بخواهد آن را پردازش کند شدنی نیست</t>
     </r>
@@ -2592,14 +2895,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اگر بخواهیم یکی یکی بیاوریم داخل رم مجدد نشدنی است و ریسک فیلد شدن سیستم است</t>
     </r>
@@ -2608,14 +2913,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ب همین خاطر مپ استیت لس می نویسد</t>
     </r>
@@ -2624,14 +2931,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع ریدوس هم به  همین صورت است</t>
     </r>
@@ -2640,14 +2949,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در تابع ریدوس به ازای هر زوج ورودی چند تا خروجی تولید می وشد و ریدوس ه موضعیت را نگهداری نمیکنید، متغیر گلوبالی هم ندارند جایی روی هارد نمی نویسد و اتفاقی نمی افتد بخاط اینکه اسکیبل باشد</t>
     </r>
@@ -2656,6 +2967,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -2664,6 +2976,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این قاعده را نمی توانیم نقض بکنیم، می توانیم از الگو یا پترن یی بنام مپر ریدوس استفاده کنیم</t>
     </r>
@@ -2672,14 +2985,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این قاعده استیت لس بودن مپ را نقض می‌کند برای اینکه بخواهد یک کم اطلاعات را تجمیع کند  اگر بتوانیم خیلی راحت مپر ریدوس بنویسیم می توانیم تا جایی که تعداد کلمات را بشمارد اگر نتوانست امیت میکند</t>
     </r>
@@ -2688,6 +3003,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -2698,6 +3014,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در بیگ دیتا زمانی که تعداد رکوردها خیلی زیاد می شود رم، هارد و سی پی یو و شبکه درگیر هستند که شبکه یک مقدار اذیت کننده است</t>
     </r>
@@ -2706,14 +3023,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">جایی که کل مپ ها ساخته شدند و می خواهد به سمت ریدوس ها بروند شافل می شوند</t>
     </r>
@@ -2722,6 +3041,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -2730,6 +3050,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">کامباین یک مقدار از این چالش ارسال حجم زیاد اطلاعات را از روی شبکه کم می کند</t>
     </r>
@@ -2738,6 +3059,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -2748,6 +3070,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یک ماشین مپ و یک ماشین ریدوس داریم </t>
     </r>
@@ -2756,14 +3079,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به تابع کامباین مینی ریدوس هم می گویند که وظیفه ریدوس را باید انجام دهد و تقریبا شبیه ریدوس است اما در سمت مپ</t>
     </r>
@@ -2772,6 +3097,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -2780,6 +3106,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">کامباین سعی میکند در سمت مپ یک استیت یی را نگهداری کند</t>
     </r>
@@ -2788,14 +3115,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خروجی کامباین شبیه مپ است</t>
     </r>
@@ -2804,6 +3133,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.   </t>
     </r>
@@ -2812,6 +3142,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خروجی مپ و کامباین وارد ریدوس می شود</t>
     </r>
@@ -2820,14 +3151,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خیلی وقتها می توانیم تابعی که برای ریدوس نوشتیم کپی و پیست کنیم در تابع کامباین ولی گاهی نمی توانیم این کار را انجام دهیم</t>
     </r>
@@ -2836,6 +3169,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -2846,6 +3180,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 3 </t>
     </r>
@@ -2854,6 +3189,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تا  مثلث در ام آر </t>
     </r>
@@ -2862,6 +3198,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -2870,6 +3207,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در ام آر </t>
     </r>
@@ -2878,6 +3216,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2  3 </t>
     </r>
@@ -2886,6 +3225,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تا تشخیص می دهد  پس مثلث تکراری داریم</t>
     </r>
@@ -2894,14 +3234,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">می توانیم ام آر </t>
     </r>
@@ -2910,6 +3252,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -2918,6 +3261,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">برای اینکه مثلثهای تکراری را حذف کینم</t>
     </r>
@@ -2926,6 +3270,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -2936,6 +3281,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ترنسفورمیشن</t>
     </r>
@@ -2944,6 +3290,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2952,6 +3299,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دستوراتی که تاجایی بتواند انجام نمیدهد</t>
     </r>
@@ -2960,14 +3308,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در ترنسفورمیشن  همه را جمع می کند </t>
     </r>
@@ -2976,14 +3326,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در حافظه نگهداری میکند و منتظر اکشن  هستند</t>
     </r>
@@ -2992,6 +3344,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -3000,6 +3353,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مثل</t>
     </r>
@@ -3008,6 +3362,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3016,6 +3371,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مپ، فیلتر، جوین، سلکت  اکشن</t>
     </r>
@@ -3024,6 +3380,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3032,6 +3389,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">جایی که با نمایش سر و کار داریم مثل</t>
     </r>
@@ -3040,6 +3398,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3048,6 +3407,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">شوو و تیک</t>
     </r>
@@ -3061,6 +3421,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دستورات در اسپارک به </t>
     </r>
@@ -3069,6 +3430,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -3077,6 +3439,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">صورت کلی هستند  </t>
     </r>
@@ -3085,6 +3448,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3093,6 +3457,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اکشن  ها و ترنسفورمر  ها </t>
     </r>
@@ -3101,14 +3466,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خود دستورات ترنسفورمر  هم به </t>
     </r>
@@ -3117,6 +3484,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -3125,6 +3493,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">گروه واید و نررو  تقسیم میشوند </t>
     </r>
@@ -3133,14 +3502,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">که دستورات نررو دستوراتی هستند که برای اجرا نیاز به اطلاعات دیگر نود ها ندارند و در همون نود قابل اجرا اجرا هستند مانند فیلتر کردن </t>
     </r>
@@ -3149,14 +3520,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اما دستورات واید برای اجرا شدن نیاز به اطلاعات دیگر نود ها دارند مانند گروپ بای </t>
     </r>
@@ -3165,6 +3538,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -3173,6 +3547,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">بعد از اینکه فیزیکال پلین را تعیین کردیم ، میتوانیم دستورات نررو را کنار هم یا به طور موازی در یک استیج سیستم اجرا کنیم </t>
     </r>
@@ -3181,6 +3556,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -3189,6 +3565,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اگر دستور واید داشتیم و نیاز به انتقال در شبکه بود ،نیازمند ایجاد یک استیج جدید هستیم </t>
     </r>
@@ -3199,6 +3576,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در این الگو به خاطر اینکه ما بخواهیم به صورت استیت فول عمل کنیم </t>
     </r>
@@ -3207,14 +3585,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در سطح کلاس مپر یک متغیر تعریف میکنیم به این صورت که در تایع اولیه ستاپ  آن را اینیت  میکنیم ، در تابع مپ مقدار آن را به روز رسانی میکنیم و در آخر در تابع کلوز مقدار ان را امیت میکنیم </t>
     </r>
@@ -3223,14 +3603,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">با استفاده از این عمل مشکل اصلی ما که همان ارسال از طریق شبکه میباشد تا حدودی کاهش می یابد </t>
     </r>
@@ -3239,14 +3621,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">با این تکنیک تاثیر زیادی در  ریدوسر ندارد </t>
     </r>
@@ -3255,14 +3639,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">فقط در ریدوسر مثلا عمل سام را با تعداد فراخوانی کمتری اجرا میکند </t>
     </r>
@@ -3271,14 +3657,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مزیت اصلی این روش همان انتقال کمتر در شبکه است </t>
     </r>
@@ -3287,14 +3675,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اما باید حواسمان به اسکیلبل  بودن مپ  باشد    </t>
     </r>
@@ -3305,6 +3695,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">می توان تابع پارتیشنینگ  را در مپ  طوری تغییر دارد که با استفاده از یک تابع هش طول کمتری برای کلید ایجاد کند </t>
     </r>
@@ -3313,14 +3704,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">و کار را با کلید هش  شده ادامه دهیم </t>
     </r>
@@ -3329,14 +3722,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یا اینکه میتوان بر روی هارد ذخیره کرد</t>
     </r>
@@ -3347,6 +3742,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">چون تابع کامباین   بین مپ  و ریدوس  اجرا میشود و اجرای آن اختیاری است </t>
     </r>
@@ -3355,14 +3751,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یعنی سیستم با توجه به وضعیت خود تصمیم میگیرد اجرا کند یا خیر ، پس باید اجرای آن بر ساختار ام آر تاثیری نگذارد پس ورودی با مانند ورودی ریدوس  و خروجی آن مانند خروجی مپ  می باشد </t>
     </r>
@@ -3373,6 +3771,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در حالت اول میخواهیم حالت با تکرار را بررسی کنیم پس داریم</t>
     </r>
@@ -3381,6 +3780,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:  </t>
     </r>
@@ -3389,6 +3789,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ابتدا مثلت های باز را میخواهیم پیدا کنیم</t>
     </r>
@@ -3397,14 +3798,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به ارای هر یال عضو گراف داریم </t>
     </r>
@@ -3413,6 +3816,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:  </t>
     </r>
@@ -3421,6 +3825,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">الان باید چک کنیم که بین بی </t>
     </r>
@@ -3429,6 +3834,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -3437,6 +3843,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">و  بی </t>
     </r>
@@ -3445,6 +3852,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2  </t>
     </r>
@@ -3453,6 +3861,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یالی وجود دارد یا خیر پس</t>
     </r>
@@ -3461,6 +3870,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:     </t>
     </r>
@@ -3469,6 +3879,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">وای به عنوان یک فلگ است تا نشان دهد از نوع یال می باشد  پس فقط مثلث باز هستند   اگر بخواهیم مثلث تکراری نداشته باشیم باید عمل </t>
     </r>
@@ -3477,6 +3888,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">sort </t>
     </r>
@@ -3485,6 +3897,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">را انجام دهیم و کافی است مپ </t>
     </r>
@@ -3493,6 +3906,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -3501,6 +3915,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">را به صورت زیر به روز رسانی کنیم </t>
     </r>
@@ -3509,6 +3924,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:  </t>
     </r>
@@ -3517,6 +3933,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">حالت غیر تکراری سرعت بیشتری دارد چون تعداد انتقال در شبکه کمتر است </t>
     </r>
@@ -3525,16 +3942,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
@@ -3543,6 +3962,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اکشن </t>
     </r>
@@ -3551,6 +3971,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3559,6 +3980,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">عملگر هایی هستند که باید همان موقع اجرا شوند مانند دستور شوو  </t>
     </r>
@@ -3567,6 +3989,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2.</t>
     </r>
@@ -3575,6 +3998,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ترنسفورمر</t>
     </r>
@@ -3583,6 +4007,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3591,6 +4016,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دستوراتی هستند که همان موقع اجرا نمیشوند </t>
     </r>
@@ -3599,14 +4025,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اسپارک دستورات از این نوع را نگه میدارد و به ازای هر رکورد در هنگام لود  آن ، دستورات را بر رویش اعمال میکند </t>
     </r>
@@ -3615,6 +4043,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. (</t>
     </r>
@@ -3623,6 +4052,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">به علت سربار زیاد نحوه اجرای آن به این صورت است</t>
     </r>
@@ -3631,6 +4061,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -3639,6 +4070,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مانند سام </t>
     </r>
@@ -3647,6 +4079,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+1  </t>
     </r>
@@ -3655,6 +4088,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دستورات ترنسفورمر </t>
     </r>
@@ -3663,6 +4097,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -3671,6 +4106,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">نوع هستند </t>
     </r>
@@ -3679,6 +4115,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:  1. </t>
     </r>
@@ -3687,6 +4124,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">نررو</t>
     </r>
@@ -3695,6 +4133,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3703,6 +4142,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">برای اجرا به اطلاعات موجود در نود های دیگر نیاز ندارد </t>
     </r>
@@ -3711,6 +4151,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -3719,6 +4160,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">انتقال در شبکه نداریم</t>
     </r>
@@ -3727,6 +4169,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -3735,6 +4178,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">همه این دستورات در یک استیج میتوانند باشند مانند فیلتر  </t>
     </r>
@@ -3743,6 +4187,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2.</t>
     </r>
@@ -3751,6 +4196,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">واید </t>
     </r>
@@ -3759,6 +4205,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3767,6 +4214,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دستوراتی هستند که برای اجرا نیاز به اطلاعات دیگر نود ها دارد و نیازمند انتقال دیتا در شبکه هستند و همچنین باعث ایجاد استیج  جدید میشوند مانند دستور گروپ بای </t>
     </r>
@@ -3780,6 +4228,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ما می تونیم تعداد زیادی دستور  ‌دشققخص داشته باشیم که توی یک نود انجام ممیشن و نیازی نیست به شبکه ارسال کنیم </t>
     </r>
@@ -3788,14 +4237,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اسپارک میاد دستورات رو تحلیل می کنه و اگه تشخیص بده میتونه تو رم پشته هم اجرا بشه میاد استیج   می سازه  که تو هر استیج  همه تو یه کامپیوتر و پشته هم اجرا میشن   و نیازی به نتورک  ندارند</t>
     </r>
@@ -3804,14 +4255,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تا جایی که نتورک  نخوایم توی یه استیج  هست  وقتی سراغ شبکه میریم میشه  استیج </t>
     </r>
@@ -3820,6 +4273,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -3830,6 +4284,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ما با تابع </t>
     </r>
@@ -3838,6 +4293,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in </t>
     </r>
@@ -3846,6 +4302,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مپر ریدوسر مشکل  استیت لس  بودن مپ رو حل میکنیم</t>
     </r>
@@ -3854,6 +4311,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
@@ -3862,6 +4320,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ما می تونستیم توابع پیر </t>
     </r>
@@ -3870,6 +4329,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3878,6 +4338,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">استریپ رو با  این مپر   بنویسیم</t>
     </r>
@@ -3886,14 +4347,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">گاهی هم با این عمل دیگه نیازی به  کاباینر نداشتیم</t>
     </r>
@@ -3902,16 +4365,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ورودی کامباین  مثله ورودی ریدوسر  و خروجی اش مثله خروجی مپ ایش  کامباینر  خودش یه  مین ریدوسر  حساب میشه پس باید ورودیش با ریدوسر  یکی باشه</t>
     </r>
@@ -3920,6 +4385,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -3933,6 +4399,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">هر کاری که در اسپارک انجام میشود به مجموعه‌های کوچکی از تسک‌ها تقسیم می‌شود که به آن‌ها استیج گفته می‌شود و هر کدام از آن‌ها به سایر استیج ها وابسته اند  است  تا جایی که نیاز به نتورک نیست دستورات و عملگرها همه داخل یک استیج قرار می گیرند</t>
     </r>
@@ -3941,14 +4408,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">و اگر داخل شبکه باشد وارد استیج دوم می شود</t>
     </r>
@@ -3957,14 +4426,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">یعنی استیج اول و دوم به این صورت تشخیص داده می شود   هر استیج شامل تسک هایی هستند که بعد در هر کدام از اگزکیوتر ها پخش می‌شوند   هر تسک به یک هسته نگاشت می‌شود و بر روی یک پارتیشن از داده کار می‌کند </t>
     </r>
@@ -3975,6 +4446,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">راه حل مپ ریدوس برای خوشه بندی کی مینز اسناد استفاده از یک ایتریشن اسکیم است که در آن با هر تکرار یک مپ ریدوس را پیاده سازی می کند  پس بنابراین یک مدل ایتریشن </t>
     </r>
@@ -3983,6 +4455,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -3991,6 +4464,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تکرارشونده</t>
     </r>
@@ -3999,6 +4473,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -4007,6 +4482,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">از نگاشت کاهش ها نیاز داریم تا بتوانیم خوشه بندی را انجام دهیم </t>
     </r>
@@ -4017,6 +4493,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این قاعده استیت لس بودن را نقض میکند و برای اینکه بخواهد به اطلاعات دسترسی کامل داشته باشد بایستی اطلاعات را تجمیع کند برای همین یک مفهوم دیگر به وجود می آید به نام  مپ ریدوس کامباینر   کامباینر که با نام‌های مینی ریدوسر یا سمی ریدوسر نیز شناخته می‌شود، خروجی‌های مپ را با استفاده از کلید یکسان خلاصه سازی می‌کند و آن را به ریدوسر انتقال می‌دهد  هنگام انجام یک کار در مپ ریدوس روی یک مجموعه داده عظیم، مپ‌ها تکه‌های عظیمی از مجموعه داده‌های میانی تولید می‌کنند</t>
     </r>
@@ -4025,14 +4502,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">سپس با توجه به چهارچوب موجود این دیتا‌ها را به ردیوسرها منتقل می‌کنند</t>
     </r>
@@ -4041,14 +4520,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">این امر موجب ازدحام شدید شبکه می‌شود </t>
     </r>
@@ -4062,6 +4543,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> ورودی شامل یکی از این </t>
     </r>
@@ -4070,6 +4552,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -4078,6 +4561,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">پارامتر رکورد ، فایل خط متنی ، اطلاعاتی از سنسور ، ورودی پس از وارد شدن به تابع مپ تاثیری روی آن نخواهد داشت ، به این علت که هیچ متغیر گلوبال ای داخل تابع مپ نداریم که استیت داخلش نگه داشته شود تنها رکورد وارد شده و پردازش روی آن انجام می شود و خروجی پردازش شده از آن خارج می شود بدون ذخیره کردن استیت و عملیات انجام شده روی آن  در تابع مپ باید رکورد ها را به صورت خط به خط بخوانیم ، این محدودیت را به دلیل ویژگی اسکیلبیلیتی تابع ریدوس مپ می پذیریم ، با این ویژگی می توانیم روی حجم زیادی از دیتا ها پردازش انجام دهیم  ولی در کامباین  یکسری ماشین ریدوسر داریم که تابع ریدوس را اجرا می کنند و یکسری ماشین مپر داریم که تابع مپ را اجرا میکنند و یکسری تابع کامباینر که تابع کامباین را اجرا میکنند  تابع کامباین به نوعی وظیفه ی ریدوس را سمت مپ اجرا میکند ، به تابع کامباین به نوعی ریدوسر مینی هم می گویند </t>
     </r>
@@ -4086,14 +4570,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تابع کامباین در سمت مپ یک استیت رو نگه می دارد طبق ورودی آن یک متغیر تی و تعدادی از تکرار های آن را ذخیره می کند </t>
     </r>
@@ -4102,16 +4588,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">هر یال را به صورت زوج مرتب میگیریم وقتی یال بی آ را دریافت میکنیم سپس مثلث باز ها را پیدا کنیم ،مثلث های بازی که </t>
     </r>
@@ -4120,6 +4608,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">a </t>
     </r>
@@ -4128,6 +4617,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">راس است پس آ کلید و راسی که بهش وصل است ولیو در نظر میگیریم همین اتفاق برای بی هم می تواند بیفتد یعنی بی کلید شود و آ، ولیو شود  در هر مثلثی باید تضمین کنیم که راسی وسط قرار بگیره که از همه کمتر باشد یعنی فقط مثلث باز </t>
     </r>
@@ -4136,6 +4626,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -4144,6 +4635,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">و </t>
     </r>
@@ -4152,6 +4644,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -4160,6 +4653,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">و </t>
     </r>
@@ -4168,6 +4662,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -4176,6 +4671,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">را تولید کند راس کمینه را کلید می کنیم </t>
     </r>
@@ -4186,6 +4682,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">دو مدل اپریشن در اسپارک وجود دارد </t>
     </r>
@@ -4194,6 +4691,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -4202,6 +4700,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">اکشن و ترنسفورمیشن  ترنسفورمیشن ها لیزی هستند و بلافاصله اجرا نمی شوند</t>
     </r>
@@ -4210,14 +4709,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">پس همه آنها کنار هم قرار می گیرند و منتظر می شوند یک اکشن بیاید و چون اکشنها در نمایش و خروجی دادن هستند، ترنسفورمیشن ها اجبارا اجرا می شوند تا خروجی اپریشن ها را اجرا کنند  دو تا دستور ترنسفورمیشن داریم</t>
     </r>
@@ -4226,6 +4727,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:  </t>
     </r>
@@ -4234,6 +4736,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">واید و نررو   نررو تبدیلاتی از داده هستند که روی یک کامپیوتر به صورت منحصر به فرد می توانند انجام شوند یعنی نیازی به داشتن اطلاعات کامپیوتر های دیگر نیست  اما  گروپ بای یک دستور واید است</t>
     </r>
@@ -4242,17 +4745,97 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">چون برای انجام ترنسفورمیشن نیاز به اطلاعات نودهای دیگر وجود دارد </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شیرین شعبانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برای دستوراتی که در اسپارک ایجاد می شوند دو نوع تحلیل فیزیکی و منطقی می توانیم داشته ابشیم. دستورات  را با چندین استیج اجرا می کنیم. استیجها گروهی از تسکها هستند که بر مبنای یک پارتیشن اجرا شده و می توانند موازی اجرا شوند.  تا ان جایی که نیاز به شبکه وجود نداشته باشد دستورات و عملگرها همه درون  استیج 1 و اگر داخل شبکه باشد وارد استیج 2 می شوند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در این روش براساس میانگین خوشه بندی می شود. نمی توان کمباینر را کپی کرد اما به ازای هر داده مثلا هر استرینگ یک سری عدد دارمی که میانگین محاسبه می شود. در مچ استرینگ و عدد به عنوان کلید مقدار ارسال می شود و در ریدوس با میانگین عملیات صورت می گیرد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در الگوی پاریس کلید آ و ب تعریف و به ازای هر زوج اینها را میشمارد در الگوی اینمپ تابع مپ دو حلقه فور دارد که برای تمام دبلیو ها یک زوج مرتب را به عنوان کلید تعریف و عدد 1 رو به ردیوس میفرستد. ممکن است کلیدها پیچیده باشند و خیلی نمی توان از کامباینر استفاده کرد.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">می توانیم بسته به الگوریتم کتار از هارد و رم کمک بگیریم. از پنجره لغزان استفاده کنیم، یا از متد دی جی آی ام که حافظه کمتری مصرف می کند (برای وقتی که صفر و یک ها همگون نیستند)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مپ داده ها را به صورت یک زوج کلید/مقدار استخراج می‌کنیم  در ریدوس دکلیدها وارد می شوند تا کاهش یابند  کامباین می تواند کپی ریدوس باشد به دو شرط جابجایی و شرکت پذیری </t>
+  </si>
+  <si>
+    <t xml:space="preserve">لایه 1: مثلث باز و لایه 2: بسته  در لایه 2 بررسی می شود که مثلث هایی که پیدا کردیم بین یالی هست یا نه  هر یال را به صورت زوج مرتب میگیریم وقتی یال آ بی را دریافت میکنیم مثلث باز ها را پیدا می کنیم ،مثلث های بازی که آ راس است پس کلید و راسی که بهش وصل است ولیو و برای بی هم همینطور   در سمت ردیوس هم مقادیری برای کلید آ داریم و اگر ان تا راس باشد تعداد مثلثهای باز:   در مپ 2 مثلث بازها را داریم:    و این کلید را با راس آ  میفرستیم به ریدوس که بررسی کند یال هست یا نه و آن را کلید می کنیم که اگر یال باشند و در مثلثهای باز هم باشند می شود مثل را تشخیص داد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترنسفورمیشن و اکشن  ترنسفورمیشن مثل فیلتر داده ها که تا جایی که لبتواند انجام نمی دهد و لیزی هستند بلافاصله اجرا نمی شوند.   اما اکشنها نمی تواند انجام ندهد و باید همان موقع انجام شوند مثل نمایش داده ها یا سلکت  پس همه ترنسفورمیشنها کنار هم قرار می گیرند و منتظر می شوند یک اکشن بیاید و چون اکشنها در نمایش و خروجی دادن هستند، ترنسفورمیشن ها اجرا می شوند تا خروجی اپریشن ها را اجرا کنند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محبوبه شعرای نجاتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در اسپارک دو نوع پلن دارم. لوجیکال  و فیزیکال در نوع اول تحلیلی که قرار است انجام بدهیم مشخص  میشود و در نوع دوم ترتیب اجرای دستورها، نودهای مشخص شده، منابع سخت افزاری و ... مشخص میشود. در فیزیکال پلن دستور را با استیج اجرا میکنیم. ( دستور ها یا میتوانند در یک نود به تنهایی اجرا شوند که به انها دستورات نررو میگوییم و یا نیاز به اطلاعات نودهای دیگر دارند که به آنها واید می گویی) پس تا جایی که نیاز به نودهای دیگر نیست و در یک نود میتوان دستور را اجرا کرد عملگرها داخل یک استیج قرار میگیرند. اگر وارد شبکه شد ( نود دیگر) به یک استیج دیگر میرویم.  پس به طور خلاصه یک استیج مجموعه دستورات تسک هایی انجام میدهد. (تسک در یک ماشین انجام میشود) و به صورت موازی اجرا میشوند.  در پلن فیزیکی باید مدنظر داشته باشیم که استیج ها تشکیل یک دور ندهند. زیرا در این صورت کار هرگز تمام نمیشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">این مپ ریدوسر یا همان تابع کامباین یا همان مینی ریدوسر است که وظیفه ریدوس را سمت مپ اجرا میکند. این روش یک روش اختیاری است و تنها با دو شرط همان ریدوس است : 1- جابه جایی 2- شرکت پذیری یعنی کامباین تنها زمانی می تواند استفاده شود که تابع ردیوس هم بصورت کامیوتیتیو ظاهر می شود و هم بصورت اسوشیتیو.کامیوتیتیو در سیگناچور تابع کامباین باید مدنظر داشته باشیم که خروجی آن مشابه تابع مپ و ورودی آن مشابه تابع ریدوس است.  وظیفه اصلی یک کامباینر، خلاصه سازی رکوردهای خروجی کلاس مپ با کلید یکسان است.مزیت کلیدی کامباینر اینست که به تفکیک داده ها در چندین گروه مجازی برای فاز ریدوس کمک می کند، چرا که در اینصورت پردازش را بیش از پیش آسان تر می کند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر در ریدوسر خطایی رخ بدهد میتوانیم آن را هندل کنیم بدین صورت که نود دیگری جایگزین آن میکنیم و از مپ میخواهیم که داده را دوباره برای ریدوسر ارسال کند.(زیرا مپ ها داده میانی را روی دیسک ذخیره میکنند.) بدین شکل میتوان گفت که ریدوسر  به صورت فالت تولرنس هست و میتواند خطا را هندل کند.  برای زمانی که طول لیست کلیدها بیشتر از حجم رم ریدوسر باشد میتوان یک نود دیگر به آن اضافه کرد و یا از پارتیشن و کامباین استفاده کرد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">در اسپارک دو نوع عملگر داریم: 1- ترنسفورمیشن: این عملگر به صورت لیزی است و در لحظه عملیاتی که گفته شده را انجام نمیدهد. منتظر میماند و وقتی یک اکشن درخواست شد انجام میشود. خودش به دو نوع نررو و واید تقسیم می شود. نوع اول دستوراتی هستند که روی یک نود( کامپیوتر) اجرا میشوند و نیازی به اطلاعات بقیه نودها ندارند مانند فیلتر,رید  نوع واید نیاز به اطلاعات بقیه نودها دارند مانند گروپ بای 2- اکشن: در همان لحظه دستور را انجام میدهد. مانند دستورات تیک, شوو </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطمه شهیدانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استيج مجموعه اي از تسك هاست . هر تسك يك گام از كار هست و روي يك نود انجام ميشود. ارتباط بين اين استيج ها و اينكه كدام بايد اول انجام شود و يا كدام به كدام وابسته است توسط يك گراف جهت دار بدون دور مدل ميشود. تفاوت نوع عمليات هاي اسپارك میتواند باعث شود دو استیج داشته باشیم. عملیات های از نوع نررو ترنسفورمیشن را در یک استیج می توانند باشند که نیازی به کل داده و ارتباط شبکه ای با سایر نودها ندارد و عملیات های از نوع واید باعث می شود استیج دیگری داشته باشیم.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">این مپ ریدوسر کمک می کند درون مپ بتوانیم استیت نگه داریم. اثری روی ریدوسر ندارد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر منظور سوال این هست که تعداد زوج مرتب های درون ردیوسر زیاد باشد، برای حل این مشکل باید از یک کامباینر درون مپر استفاده کنیم که بخشی از این داده های مربوط به کلید های یکسان را تجمیع کند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورودی تابع کامباین باید مثل ورودی ریدوس باشد (چون کاری شبیه ریدوس انجام میدهد ولی داخل  مپ) و خروجی آن باید شبیه خروجی مپ باشد (چون قرار است خروجی آن به عنوان ورودی به ریدوسر داده شود.  از نظر فرمال:  حتی گاهی می توانیم تابع ریدوس را به عنوان تابع کامباین استفاده کنیم. در شرایطی که عملیات درون ریدوس خاصیت جابه جایی و اشتراک پذیری داشته باشد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو نوع عملگر اکشن و ترنسفورم داریم.  عملگرهای اکشن مثل تیک، کانت و شوو هستند که خروجی دارند و هنگامی که آن ها را استفاده میکنیم عملیات مد نظر کامل اجرا میشود.  عملگر ترنسفورم مثل فیلتر، مپ و ... هستند که Lazy اجرا می شوند. به این معنا که وقتی متدهای مربوطه را صدا می زنیم همان لحظه اجرا نمی شوند. بلکه همه ترنسفورم ها اجرا نشده می مانند تا زمانی که یک عملیات اکشن صدا بزنیم آنگاه همه اجرا می شوند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نگین شیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنگام مشخص شدن فیزیکال پلن ما یک یا دو تا استیج داریم. استیج یک آنهایی هستند که میتوانیم آنها رو روی یک ماشین ران کنیم و ماشین ها به صورت موازی هستند که دستورات نررو هستند و وقتی از استیج 1 به استج 2 می رود که ما دستور واید داشته باشیم و داده ها را بین ماشین های مختلف جابه جا می کند و در نتیجه در استیج یک دستورات نررو اجرا می کند و میره به استیج 2 دستورات واید را اجرا می کند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادامه سوال 6  اگر بخواهیم با دو لایه ام آر مثلث غیر تکراری پیدا کنیم باید تضمین کنیم که در هر مثلثی راس وسط قرار بگیره که از همه کمتر باشه و راس کمینه را کلید ممکنیم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ابتدا باید یک متغیر گلوبال تعریف می کنیم و در قسمت ستاپ آن مقداردهی اولیه میکنیم .در قسمت مپ آن را آپدیت کرده و در کلین آپ ارسالش می کنیم.  در قسمت ریدوس تفاوتی ایجاد نمی کند ولی باعث می شود تابع ریدوس کمتر فراخوانی شود چونکه قسمتی از داده های تجمیع می شوند.  خیرتحت تاثیر نمی گذارد اما فراخوانی تابع ریدوس را کمتر می‌کند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر تعداد کلیدها بزرگتر از ریدوس باشه به حافظه اضافه کرده و به اضافه یک میکند و اضافه می کند به رم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیگناچور تابع کامباینر ورودیش مثل ورودیه ردیوس است خروجیش مثل خروچی مپ است  زیرا اختیاری می باشد و می تواند به جای مپ هم اجرا بشه یا نشه .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکشن و ترنسفورمیشن  ترنسفورمیشن :  اسپارک پشت گوش می اندازد به این صورت که می گوید انجام دادم ولی انجام نمی دهد. چون نمی تواند که همه ی داده ها را ضرب در 2 کند با + 1 کند. نگه می دارد تا یک جا همه ی عملیات ها را انجام دهد. تا جایی که بتواند انجام ندهد انجام نمی دهد.  اکشن : دستوراتی هستند که نمیتواند انجام ندهد برای مثال نمایش داده ها </t>
   </si>
 </sst>
 </file>
@@ -4262,11 +4845,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4286,6 +4870,12 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4331,12 +4921,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4357,15 +4951,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,6 +5233,92 @@
       </c>
       <c r="H12" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
